--- a/biology/Médecine/Chavarch_Nartouni/Chavarch_Nartouni.xlsx
+++ b/biology/Médecine/Chavarch_Nartouni/Chavarch_Nartouni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chavarch Nartouni (en arménien Շաւարշ Նարդունի), né en 1898 à Armache, près de Constantinople et mort en 1968 à Marseille, est un médecin et écrivain arménien.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chavarch Nartouni naît Askanaz Ayvazian en 1898 à Armache. Il fréquente l'école du village puis le Guétronagan de la ville d'Adapazar[1].
-Exclu de l'école militaire de Constantinople, il arrive en France en 1923 pour faire des études de médecine à Paris[1]. Médecin interne à l’hôpital psychiatrique d’Amiens, Nartouni collabore à la presse arménienne de Paris et fait partie, jusqu’à sa mort, de la rédaction de Haratch[1].
-Il dirige l’Union des Arméniens de Paris, fonde l’Union des Orphelins adultes dont il dirige la revue[1]. Ensuite, pendant de longues années, il publie la revue médicale Hay Pouj (médecin arménien)[2]. En 1931, il prend la tête de la revue Menk[3]. Sa signature apparaît dans toutes les revues de la capitale, de Zvartnots à Andastan[1].
-Il meurt à Marseille en 1968[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chavarch Nartouni naît Askanaz Ayvazian en 1898 à Armache. Il fréquente l'école du village puis le Guétronagan de la ville d'Adapazar.
+Exclu de l'école militaire de Constantinople, il arrive en France en 1923 pour faire des études de médecine à Paris. Médecin interne à l’hôpital psychiatrique d’Amiens, Nartouni collabore à la presse arménienne de Paris et fait partie, jusqu’à sa mort, de la rédaction de Haratch.
+Il dirige l’Union des Arméniens de Paris, fonde l’Union des Orphelins adultes dont il dirige la revue. Ensuite, pendant de longues années, il publie la revue médicale Hay Pouj (médecin arménien). En 1931, il prend la tête de la revue Menk. Sa signature apparaît dans toutes les revues de la capitale, de Zvartnots à Andastan.
+Il meurt à Marseille en 1968.
 </t>
         </is>
       </c>
